--- a/Designer/Export/Output/Rule/R_LocImage.xlsx
+++ b/Designer/Export/Output/Rule/R_LocImage.xlsx
@@ -72,7 +72,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="2967fd36-bcff-4191-b46b-08e829f10307" xfId="1"/>
+    <cellStyle name="4c70ac51-4e43-42f7-ba05-8267d3d6fd43" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
